--- a/docs/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-204_用語集(サンプル＆ガイド).xlsx
+++ b/docs/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-204_用語集(サンプル＆ガイド).xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">ガイド!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">サンプル!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -333,16 +333,6 @@
   </si>
   <si>
     <t>2018年08月29日</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>TIS株式会社</t>
-    <rPh sb="1" eb="3">
-      <t>カブシキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カイシャ</t>
-    </rPh>
     <phoneticPr fontId="13"/>
   </si>
   <si>
@@ -525,6 +515,13 @@
     </rPh>
     <rPh sb="33" eb="35">
       <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
+    <rPh sb="0" eb="1">
+      <t>ヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2388,9 +2385,7 @@
       <c r="G31" s="18"/>
       <c r="H31" s="14"/>
       <c r="J31" s="19"/>
-      <c r="R31" s="20" t="s">
-        <v>35</v>
-      </c>
+      <c r="R31" s="20"/>
     </row>
     <row r="32" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F32" s="14"/>
@@ -2430,20 +2425,24 @@
     </row>
     <row r="39" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" s="27" t="s">
         <v>36</v>
-      </c>
-      <c r="E39" s="27" t="s">
-        <v>37</v>
       </c>
       <c r="O39" s="24"/>
       <c r="P39" s="24"/>
       <c r="Q39" s="25"/>
       <c r="R39" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S39" s="24"/>
     </row>
-    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
     <row r="41" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="42" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="43" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2918,7 +2917,7 @@
     <hyperlink ref="E39" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -2961,17 +2960,17 @@
     </row>
     <row r="8" spans="1:34" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:34" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:34" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:34" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3037,7 +3036,7 @@
       <c r="G15" s="34"/>
       <c r="H15" s="35"/>
       <c r="I15" s="33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J15" s="34"/>
       <c r="K15" s="34"/>
@@ -3163,7 +3162,7 @@
       <c r="G18" s="37"/>
       <c r="H18" s="38"/>
       <c r="I18" s="36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J18" s="37"/>
       <c r="K18" s="37"/>
@@ -3205,7 +3204,7 @@
       <c r="G19" s="37"/>
       <c r="H19" s="38"/>
       <c r="I19" s="36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J19" s="37"/>
       <c r="K19" s="37"/>
@@ -3247,7 +3246,7 @@
       <c r="G20" s="37"/>
       <c r="H20" s="38"/>
       <c r="I20" s="36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J20" s="37"/>
       <c r="K20" s="37"/>
@@ -3476,7 +3475,7 @@
       <c r="O5" s="43"/>
       <c r="P5" s="44"/>
       <c r="Q5" s="45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R5" s="43"/>
       <c r="S5" s="43"/>

--- a/docs/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-204_用語集(サンプル＆ガイド).xlsx
+++ b/docs/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-204_用語集(サンプル＆ガイド).xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">ガイド!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">サンプル!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" calcMode="manual"/>
 </workbook>
 </file>
 
@@ -333,6 +333,16 @@
   </si>
   <si>
     <t>2018年08月29日</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>TIS株式会社</t>
+    <rPh sb="1" eb="3">
+      <t>カブシキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイシャ</t>
+    </rPh>
     <phoneticPr fontId="13"/>
   </si>
   <si>
@@ -515,13 +525,6 @@
     </rPh>
     <rPh sb="33" eb="35">
       <t>ハッセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
-    <rPh sb="0" eb="1">
-      <t>ヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2385,7 +2388,9 @@
       <c r="G31" s="18"/>
       <c r="H31" s="14"/>
       <c r="J31" s="19"/>
-      <c r="R31" s="20"/>
+      <c r="R31" s="20" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="32" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F32" s="14"/>
@@ -2425,24 +2430,20 @@
     </row>
     <row r="39" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E39" s="27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O39" s="24"/>
       <c r="P39" s="24"/>
       <c r="Q39" s="25"/>
       <c r="R39" s="25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="S39" s="24"/>
     </row>
-    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
+    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="41" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="42" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="43" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2917,7 +2918,7 @@
     <hyperlink ref="E39" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -2960,17 +2961,17 @@
     </row>
     <row r="8" spans="1:34" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:34" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:34" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:34" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3036,7 +3037,7 @@
       <c r="G15" s="34"/>
       <c r="H15" s="35"/>
       <c r="I15" s="33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J15" s="34"/>
       <c r="K15" s="34"/>
@@ -3162,7 +3163,7 @@
       <c r="G18" s="37"/>
       <c r="H18" s="38"/>
       <c r="I18" s="36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J18" s="37"/>
       <c r="K18" s="37"/>
@@ -3204,7 +3205,7 @@
       <c r="G19" s="37"/>
       <c r="H19" s="38"/>
       <c r="I19" s="36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J19" s="37"/>
       <c r="K19" s="37"/>
@@ -3246,7 +3247,7 @@
       <c r="G20" s="37"/>
       <c r="H20" s="38"/>
       <c r="I20" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J20" s="37"/>
       <c r="K20" s="37"/>
@@ -3475,7 +3476,7 @@
       <c r="O5" s="43"/>
       <c r="P5" s="44"/>
       <c r="Q5" s="45" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R5" s="43"/>
       <c r="S5" s="43"/>

--- a/docs/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-204_用語集(サンプル＆ガイド).xlsx
+++ b/docs/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-204_用語集(サンプル＆ガイド).xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC6A422-907B-404F-859B-A09B5606624C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="10575" windowHeight="5715"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="17850" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -18,12 +19,22 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">ガイド!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">サンプル!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
   <si>
     <t>記述内容</t>
     <rPh sb="0" eb="2">
@@ -334,17 +345,6 @@
   <si>
     <t>2018年08月29日</t>
     <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t xml:space="preserve">この 作品 は </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クリエイティブ・コモンズ 表示 - 継承 4.0 国際 ライセンス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>の下に提供されています。</t>
   </si>
   <si>
     <r>
@@ -518,18 +518,11 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
-  <si>
-    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
-    <rPh sb="0" eb="1">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
@@ -931,6 +924,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -949,13 +951,31 @@
     <xf numFmtId="0" fontId="22" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -965,33 +985,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1076,6 +1069,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1097,7 +1093,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Text Box 7610"/>
+        <xdr:cNvPr id="2" name="Text Box 7610">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1195,52 +1197,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>94137</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="276225" y="6715125"/>
-          <a:ext cx="838200" cy="265587"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1256,7 +1212,13 @@
     <xdr:ext cx="800219" cy="359073"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1333,7 +1295,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1420,7 +1388,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1502,7 +1476,13 @@
     <xdr:ext cx="800219" cy="359073"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1579,7 +1559,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="12" name="グループ化 11"/>
+        <xdr:cNvPr id="12" name="グループ化 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -1592,7 +1578,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+          <xdr:cNvPr id="13" name="正方形/長方形 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1633,7 +1625,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+          <xdr:cNvPr id="14" name="正方形/長方形 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1693,7 +1691,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="直線矢印コネクタ 16"/>
+        <xdr:cNvPr id="17" name="直線矢印コネクタ 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="4" idx="3"/>
           <a:endCxn id="14" idx="1"/>
@@ -1743,7 +1747,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="直線矢印コネクタ 18"/>
+        <xdr:cNvPr id="19" name="直線矢印コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="2"/>
           <a:endCxn id="4" idx="0"/>
@@ -1793,7 +1803,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="21" name="グループ化 20"/>
+        <xdr:cNvPr id="21" name="グループ化 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -1806,7 +1822,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="22" name="正方形/長方形 21"/>
+          <xdr:cNvPr id="22" name="正方形/長方形 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1847,7 +1869,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="23" name="正方形/長方形 22"/>
+          <xdr:cNvPr id="23" name="正方形/長方形 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1907,7 +1935,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="直線矢印コネクタ 23"/>
+        <xdr:cNvPr id="24" name="直線矢印コネクタ 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="23" idx="3"/>
           <a:endCxn id="4" idx="1"/>
@@ -1952,7 +1986,13 @@
     <xdr:ext cx="1005403" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="テキスト ボックス 26"/>
+        <xdr:cNvPr id="27" name="テキスト ボックス 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2005,7 +2045,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2047,7 +2087,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2080,9 +2120,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2115,6 +2172,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2290,7 +2364,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2399,58 +2473,47 @@
       <c r="R32" s="23"/>
       <c r="S32" s="24"/>
     </row>
-    <row r="33" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O36" s="21"/>
       <c r="P36" s="21"/>
       <c r="Q36" s="24"/>
       <c r="R36" s="24"/>
       <c r="S36" s="24"/>
     </row>
-    <row r="37" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O37" s="25"/>
       <c r="P37" s="24"/>
       <c r="Q37" s="25"/>
       <c r="R37" s="24"/>
       <c r="S37" s="26"/>
     </row>
-    <row r="38" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O38" s="25"/>
       <c r="P38" s="24"/>
       <c r="Q38" s="25"/>
       <c r="R38" s="24"/>
       <c r="S38" s="25"/>
     </row>
-    <row r="39" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E39" s="27" t="s">
-        <v>36</v>
-      </c>
+    <row r="39" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E39" s="27"/>
       <c r="O39" s="24"/>
       <c r="P39" s="24"/>
       <c r="Q39" s="25"/>
-      <c r="R39" s="25" t="s">
-        <v>37</v>
-      </c>
+      <c r="R39" s="25"/>
       <c r="S39" s="24"/>
     </row>
-    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2913,17 +2976,14 @@
     <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="E39" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH37"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -2960,17 +3020,17 @@
     </row>
     <row r="8" spans="1:34" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:34" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:34" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="29" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:34" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2984,295 +3044,295 @@
       <c r="B14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="30" t="s">
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="31"/>
-      <c r="S14" s="31"/>
-      <c r="T14" s="31"/>
-      <c r="U14" s="31"/>
-      <c r="V14" s="31"/>
-      <c r="W14" s="31"/>
-      <c r="X14" s="31"/>
-      <c r="Y14" s="32"/>
-      <c r="Z14" s="30" t="s">
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="34"/>
+      <c r="U14" s="34"/>
+      <c r="V14" s="34"/>
+      <c r="W14" s="34"/>
+      <c r="X14" s="34"/>
+      <c r="Y14" s="35"/>
+      <c r="Z14" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="AA14" s="31"/>
-      <c r="AB14" s="31"/>
-      <c r="AC14" s="31"/>
-      <c r="AD14" s="31"/>
-      <c r="AE14" s="31"/>
-      <c r="AF14" s="31"/>
-      <c r="AG14" s="31"/>
-      <c r="AH14" s="32"/>
+      <c r="AA14" s="34"/>
+      <c r="AB14" s="34"/>
+      <c r="AC14" s="34"/>
+      <c r="AD14" s="34"/>
+      <c r="AE14" s="34"/>
+      <c r="AF14" s="34"/>
+      <c r="AG14" s="34"/>
+      <c r="AH14" s="35"/>
     </row>
     <row r="15" spans="1:34" s="2" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B15" s="28">
         <v>1</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="34"/>
-      <c r="V15" s="34"/>
-      <c r="W15" s="34"/>
-      <c r="X15" s="34"/>
-      <c r="Y15" s="35"/>
-      <c r="Z15" s="33"/>
-      <c r="AA15" s="34"/>
-      <c r="AB15" s="34"/>
-      <c r="AC15" s="34"/>
-      <c r="AD15" s="34"/>
-      <c r="AE15" s="34"/>
-      <c r="AF15" s="34"/>
-      <c r="AG15" s="34"/>
-      <c r="AH15" s="35"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="37"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="37"/>
+      <c r="Y15" s="38"/>
+      <c r="Z15" s="36"/>
+      <c r="AA15" s="37"/>
+      <c r="AB15" s="37"/>
+      <c r="AC15" s="37"/>
+      <c r="AD15" s="37"/>
+      <c r="AE15" s="37"/>
+      <c r="AF15" s="37"/>
+      <c r="AG15" s="37"/>
+      <c r="AH15" s="38"/>
     </row>
     <row r="16" spans="1:34" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="28">
         <f t="shared" ref="B16:B20" si="0">B15+1</f>
         <v>2</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="36" t="s">
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="37"/>
-      <c r="U16" s="37"/>
-      <c r="V16" s="37"/>
-      <c r="W16" s="37"/>
-      <c r="X16" s="37"/>
-      <c r="Y16" s="38"/>
-      <c r="Z16" s="36"/>
-      <c r="AA16" s="37"/>
-      <c r="AB16" s="37"/>
-      <c r="AC16" s="37"/>
-      <c r="AD16" s="37"/>
-      <c r="AE16" s="37"/>
-      <c r="AF16" s="37"/>
-      <c r="AG16" s="37"/>
-      <c r="AH16" s="38"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="31"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="31"/>
+      <c r="W16" s="31"/>
+      <c r="X16" s="31"/>
+      <c r="Y16" s="32"/>
+      <c r="Z16" s="30"/>
+      <c r="AA16" s="31"/>
+      <c r="AB16" s="31"/>
+      <c r="AC16" s="31"/>
+      <c r="AD16" s="31"/>
+      <c r="AE16" s="31"/>
+      <c r="AF16" s="31"/>
+      <c r="AG16" s="31"/>
+      <c r="AH16" s="32"/>
     </row>
     <row r="17" spans="1:34" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="28">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="36" t="s">
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="37"/>
-      <c r="T17" s="37"/>
-      <c r="U17" s="37"/>
-      <c r="V17" s="37"/>
-      <c r="W17" s="37"/>
-      <c r="X17" s="37"/>
-      <c r="Y17" s="38"/>
-      <c r="Z17" s="36"/>
-      <c r="AA17" s="37"/>
-      <c r="AB17" s="37"/>
-      <c r="AC17" s="37"/>
-      <c r="AD17" s="37"/>
-      <c r="AE17" s="37"/>
-      <c r="AF17" s="37"/>
-      <c r="AG17" s="37"/>
-      <c r="AH17" s="38"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="31"/>
+      <c r="U17" s="31"/>
+      <c r="V17" s="31"/>
+      <c r="W17" s="31"/>
+      <c r="X17" s="31"/>
+      <c r="Y17" s="32"/>
+      <c r="Z17" s="30"/>
+      <c r="AA17" s="31"/>
+      <c r="AB17" s="31"/>
+      <c r="AC17" s="31"/>
+      <c r="AD17" s="31"/>
+      <c r="AE17" s="31"/>
+      <c r="AF17" s="31"/>
+      <c r="AG17" s="31"/>
+      <c r="AH17" s="32"/>
     </row>
     <row r="18" spans="1:34" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="28">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="37"/>
-      <c r="S18" s="37"/>
-      <c r="T18" s="37"/>
-      <c r="U18" s="37"/>
-      <c r="V18" s="37"/>
-      <c r="W18" s="37"/>
-      <c r="X18" s="37"/>
-      <c r="Y18" s="38"/>
-      <c r="Z18" s="36"/>
-      <c r="AA18" s="37"/>
-      <c r="AB18" s="37"/>
-      <c r="AC18" s="37"/>
-      <c r="AD18" s="37"/>
-      <c r="AE18" s="37"/>
-      <c r="AF18" s="37"/>
-      <c r="AG18" s="37"/>
-      <c r="AH18" s="38"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="31"/>
+      <c r="V18" s="31"/>
+      <c r="W18" s="31"/>
+      <c r="X18" s="31"/>
+      <c r="Y18" s="32"/>
+      <c r="Z18" s="30"/>
+      <c r="AA18" s="31"/>
+      <c r="AB18" s="31"/>
+      <c r="AC18" s="31"/>
+      <c r="AD18" s="31"/>
+      <c r="AE18" s="31"/>
+      <c r="AF18" s="31"/>
+      <c r="AG18" s="31"/>
+      <c r="AH18" s="32"/>
     </row>
     <row r="19" spans="1:34" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="28">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="37"/>
-      <c r="T19" s="37"/>
-      <c r="U19" s="37"/>
-      <c r="V19" s="37"/>
-      <c r="W19" s="37"/>
-      <c r="X19" s="37"/>
-      <c r="Y19" s="38"/>
-      <c r="Z19" s="36"/>
-      <c r="AA19" s="37"/>
-      <c r="AB19" s="37"/>
-      <c r="AC19" s="37"/>
-      <c r="AD19" s="37"/>
-      <c r="AE19" s="37"/>
-      <c r="AF19" s="37"/>
-      <c r="AG19" s="37"/>
-      <c r="AH19" s="38"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="31"/>
+      <c r="V19" s="31"/>
+      <c r="W19" s="31"/>
+      <c r="X19" s="31"/>
+      <c r="Y19" s="32"/>
+      <c r="Z19" s="30"/>
+      <c r="AA19" s="31"/>
+      <c r="AB19" s="31"/>
+      <c r="AC19" s="31"/>
+      <c r="AD19" s="31"/>
+      <c r="AE19" s="31"/>
+      <c r="AF19" s="31"/>
+      <c r="AG19" s="31"/>
+      <c r="AH19" s="32"/>
     </row>
     <row r="20" spans="1:34" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="28">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="37"/>
-      <c r="S20" s="37"/>
-      <c r="T20" s="37"/>
-      <c r="U20" s="37"/>
-      <c r="V20" s="37"/>
-      <c r="W20" s="37"/>
-      <c r="X20" s="37"/>
-      <c r="Y20" s="38"/>
-      <c r="Z20" s="36"/>
-      <c r="AA20" s="37"/>
-      <c r="AB20" s="37"/>
-      <c r="AC20" s="37"/>
-      <c r="AD20" s="37"/>
-      <c r="AE20" s="37"/>
-      <c r="AF20" s="37"/>
-      <c r="AG20" s="37"/>
-      <c r="AH20" s="38"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="31"/>
+      <c r="V20" s="31"/>
+      <c r="W20" s="31"/>
+      <c r="X20" s="31"/>
+      <c r="Y20" s="32"/>
+      <c r="Z20" s="30"/>
+      <c r="AA20" s="31"/>
+      <c r="AB20" s="31"/>
+      <c r="AC20" s="31"/>
+      <c r="AD20" s="31"/>
+      <c r="AE20" s="31"/>
+      <c r="AF20" s="31"/>
+      <c r="AG20" s="31"/>
+      <c r="AH20" s="32"/>
     </row>
     <row r="21" spans="1:34" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="22" spans="1:34" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -3297,6 +3357,12 @@
     <row r="37" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="I14:Y14"/>
+    <mergeCell ref="Z14:AH14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="I15:Y15"/>
+    <mergeCell ref="Z15:AH15"/>
     <mergeCell ref="C20:H20"/>
     <mergeCell ref="I20:Y20"/>
     <mergeCell ref="Z20:AH20"/>
@@ -3312,12 +3378,6 @@
     <mergeCell ref="C19:H19"/>
     <mergeCell ref="I19:Y19"/>
     <mergeCell ref="Z19:AH19"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="I14:Y14"/>
-    <mergeCell ref="Z14:AH14"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="I15:Y15"/>
-    <mergeCell ref="Z15:AH15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -3330,7 +3390,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AH20"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -3350,51 +3410,51 @@
       <c r="A3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="48" t="s">
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="48" t="s">
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
       <c r="M3" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="48" t="s">
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="49"/>
-      <c r="W3" s="49"/>
-      <c r="X3" s="49"/>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="49"/>
-      <c r="AB3" s="49"/>
-      <c r="AC3" s="49"/>
-      <c r="AD3" s="50"/>
-      <c r="AE3" s="48" t="s">
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="41"/>
+      <c r="AE3" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="AF3" s="49"/>
-      <c r="AG3" s="49"/>
-      <c r="AH3" s="50"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="40"/>
+      <c r="AH3" s="41"/>
     </row>
     <row r="4" spans="1:34" s="6" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
@@ -3475,7 +3535,7 @@
       <c r="O5" s="43"/>
       <c r="P5" s="44"/>
       <c r="Q5" s="45" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="R5" s="43"/>
       <c r="S5" s="43"/>
@@ -3514,11 +3574,11 @@
       <c r="G6" s="43"/>
       <c r="H6" s="43"/>
       <c r="I6" s="44"/>
-      <c r="J6" s="39" t="s">
+      <c r="J6" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="40"/>
-      <c r="L6" s="41"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="50"/>
       <c r="M6" s="42" t="s">
         <v>9</v>
       </c>
@@ -3600,9 +3660,9 @@
       <c r="G8" s="43"/>
       <c r="H8" s="43"/>
       <c r="I8" s="44"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="41"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="50"/>
       <c r="M8" s="42"/>
       <c r="N8" s="43"/>
       <c r="O8" s="43"/>
@@ -3639,9 +3699,9 @@
       <c r="G9" s="43"/>
       <c r="H9" s="43"/>
       <c r="I9" s="44"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="41"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="50"/>
       <c r="M9" s="42"/>
       <c r="N9" s="43"/>
       <c r="O9" s="43"/>
@@ -3678,9 +3738,9 @@
       <c r="G10" s="43"/>
       <c r="H10" s="43"/>
       <c r="I10" s="44"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="41"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="50"/>
       <c r="M10" s="42"/>
       <c r="N10" s="43"/>
       <c r="O10" s="43"/>
@@ -3717,9 +3777,9 @@
       <c r="G11" s="43"/>
       <c r="H11" s="43"/>
       <c r="I11" s="44"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="41"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="50"/>
       <c r="M11" s="42"/>
       <c r="N11" s="43"/>
       <c r="O11" s="43"/>
@@ -3756,9 +3816,9 @@
       <c r="G12" s="43"/>
       <c r="H12" s="43"/>
       <c r="I12" s="44"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="41"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="50"/>
       <c r="M12" s="42"/>
       <c r="N12" s="43"/>
       <c r="O12" s="43"/>
@@ -3795,9 +3855,9 @@
       <c r="G13" s="43"/>
       <c r="H13" s="43"/>
       <c r="I13" s="44"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="41"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="50"/>
       <c r="M13" s="42"/>
       <c r="N13" s="43"/>
       <c r="O13" s="43"/>
@@ -3834,9 +3894,9 @@
       <c r="G14" s="43"/>
       <c r="H14" s="43"/>
       <c r="I14" s="44"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="41"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="50"/>
       <c r="M14" s="42"/>
       <c r="N14" s="43"/>
       <c r="O14" s="43"/>
@@ -3873,9 +3933,9 @@
       <c r="G15" s="43"/>
       <c r="H15" s="43"/>
       <c r="I15" s="44"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="41"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="50"/>
       <c r="M15" s="42"/>
       <c r="N15" s="43"/>
       <c r="O15" s="43"/>
@@ -3912,9 +3972,9 @@
       <c r="G16" s="43"/>
       <c r="H16" s="43"/>
       <c r="I16" s="44"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="41"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="50"/>
       <c r="M16" s="42"/>
       <c r="N16" s="43"/>
       <c r="O16" s="43"/>
@@ -3951,9 +4011,9 @@
       <c r="G17" s="43"/>
       <c r="H17" s="43"/>
       <c r="I17" s="44"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="41"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="50"/>
       <c r="M17" s="42"/>
       <c r="N17" s="43"/>
       <c r="O17" s="43"/>
@@ -3990,9 +4050,9 @@
       <c r="G18" s="43"/>
       <c r="H18" s="43"/>
       <c r="I18" s="44"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="41"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="50"/>
       <c r="M18" s="42"/>
       <c r="N18" s="43"/>
       <c r="O18" s="43"/>
@@ -4029,9 +4089,9 @@
       <c r="G19" s="43"/>
       <c r="H19" s="43"/>
       <c r="I19" s="44"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="41"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="50"/>
       <c r="M19" s="42"/>
       <c r="N19" s="43"/>
       <c r="O19" s="43"/>
@@ -4058,6 +4118,84 @@
     <row r="20" spans="1:34" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="102">
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="AE15:AH15"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="AE6:AH6"/>
+    <mergeCell ref="AE7:AH7"/>
+    <mergeCell ref="AE8:AH8"/>
+    <mergeCell ref="AE9:AH9"/>
+    <mergeCell ref="AE10:AH10"/>
+    <mergeCell ref="AE11:AH11"/>
+    <mergeCell ref="AE12:AH12"/>
+    <mergeCell ref="AE13:AH13"/>
+    <mergeCell ref="AE14:AH14"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J14:L14"/>
     <mergeCell ref="AE3:AH3"/>
     <mergeCell ref="Q19:AD19"/>
     <mergeCell ref="Q14:AD14"/>
@@ -4082,84 +4220,6 @@
     <mergeCell ref="Q8:AD8"/>
     <mergeCell ref="AE4:AH4"/>
     <mergeCell ref="AE5:AH5"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="AE6:AH6"/>
-    <mergeCell ref="AE7:AH7"/>
-    <mergeCell ref="AE8:AH8"/>
-    <mergeCell ref="AE9:AH9"/>
-    <mergeCell ref="AE10:AH10"/>
-    <mergeCell ref="AE11:AH11"/>
-    <mergeCell ref="AE12:AH12"/>
-    <mergeCell ref="AE13:AH13"/>
-    <mergeCell ref="AE14:AH14"/>
-    <mergeCell ref="AE15:AH15"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="M5:P5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J15:L15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
